--- a/KPI Ink Group.xlsx
+++ b/KPI Ink Group.xlsx
@@ -101,10 +101,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -178,11 +178,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1666365921"/>
-        <c:axId val="1167696253"/>
+        <c:axId val="980069228"/>
+        <c:axId val="1381080580"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1666365921"/>
+        <c:axId val="980069228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -234,10 +234,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167696253"/>
+        <c:crossAx val="1381080580"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1167696253"/>
+        <c:axId val="1381080580"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -313,7 +313,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666365921"/>
+        <c:crossAx val="980069228"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -399,11 +399,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1585916547"/>
-        <c:axId val="1053085425"/>
+        <c:axId val="1120996440"/>
+        <c:axId val="663239595"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1585916547"/>
+        <c:axId val="1120996440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,10 +455,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053085425"/>
+        <c:crossAx val="663239595"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1053085425"/>
+        <c:axId val="663239595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +533,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585916547"/>
+        <c:crossAx val="1120996440"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -656,11 +656,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1591938920"/>
-        <c:axId val="2097728103"/>
+        <c:axId val="390004293"/>
+        <c:axId val="1875540133"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1591938920"/>
+        <c:axId val="390004293"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,10 +712,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097728103"/>
+        <c:crossAx val="1875540133"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097728103"/>
+        <c:axId val="1875540133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,7 +790,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1591938920"/>
+        <c:crossAx val="390004293"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -821,9 +821,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4086225" cy="2428875"/>
     <xdr:graphicFrame>
@@ -846,9 +846,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4086225" cy="2495550"/>
     <xdr:graphicFrame>
@@ -871,9 +871,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4086225" cy="2562225"/>
     <xdr:graphicFrame>
@@ -1138,7 +1138,7 @@
       <c r="E4" s="1">
         <v>8.0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>8.0</v>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       <c r="E5" s="1">
         <v>8.0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       <c r="E6" s="1">
         <v>8.0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       <c r="E7" s="1">
         <v>8.0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       <c r="E8" s="1">
         <v>7.0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       <c r="E9" s="1">
         <v>8.0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>10.0</v>
       </c>
     </row>
@@ -1246,23 +1246,23 @@
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" ref="B11:F11" si="1">AVERAGE(B4:B9)</f>
         <v>7.833333333</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>6.333333333</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>7.333333333</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>7.833333333</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>9.166666667</v>
       </c>
@@ -1285,8 +1285,8 @@
       <c r="E15" s="1">
         <v>20.0</v>
       </c>
-      <c r="F15" s="1">
-        <v>0.0</v>
+      <c r="F15" s="3">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
@@ -1299,19 +1299,24 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>23.0</v>
+        <f t="shared" ref="B19:F19" si="2">B15</f>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>18.0</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
-        <v>18.0</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
-        <v>20.0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1335,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f>(E20)-(F19)</f>
+        <f>(E20)-(F19)+13</f>
         <v>0</v>
       </c>
     </row>
